--- a/statSummary.xlsx
+++ b/statSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brocklumbard/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6171A62A-9E91-9E4B-AC23-A8BC40660AEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C1C6B7-9EE6-DC4C-95F0-199698FA2192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38380" yWindow="-6040" windowWidth="27640" windowHeight="16440" activeTab="3" xr2:uid="{3B02AF1D-0C8D-E840-AA21-100DA3EAAA36}"/>
+    <workbookView xWindow="-38380" yWindow="-6040" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{3B02AF1D-0C8D-E840-AA21-100DA3EAAA36}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerFor" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -759,7 +761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]ROIMeanByPlayerAndDesign!$S$1</c:f>
+              <c:f>[1]ROIMeanByPlayerAndDesign!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -840,7 +842,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]ROIMeanByPlayerAndDesign!$R$2:$R$155</c:f>
+              <c:f>[1]ROIMeanByPlayerAndDesign!$R$2:$R$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -1311,7 +1313,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]ROIMeanByPlayerAndDesign!$S$2:$S$155</c:f>
+              <c:f>[1]ROIMeanByPlayerAndDesign!$S$2:$S$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -2098,7 +2100,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]ROIMeanByPlayerAndDesign!$R$157:$R$310</c:f>
+              <c:f>[1]ROIMeanByPlayerAndDesign!$R$157:$R$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -2569,7 +2571,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]ROIMeanByPlayerAndDesign!$S$157:$S$310</c:f>
+              <c:f>[1]ROIMeanByPlayerAndDesign!$S$157:$S$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -3225,9 +3227,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -3235,19 +3237,8 @@
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>ROI vs. Followers: Team</a:t>
+              <a:t>ROI vs. Followers: Team "For"</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> "For"</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3271,9 +3262,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3291,7 +3282,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]mergedSocialsDFAgg!$BP$1</c:f>
+              <c:f>[5]mergedSocialsDFAggForV2!$BQ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3315,11 +3306,44 @@
                 <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AF41-3349-8957-49FEBE4CCF44}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -3336,8 +3360,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.16286876640419948"/>
-                  <c:y val="-0.12614100320793234"/>
+                  <c:x val="0.14342432195975502"/>
+                  <c:y val="-0.13381415864683582"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3372,7 +3396,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]mergedSocialsDFAgg!$BO$2:$BO$30</c:f>
+              <c:f>[5]mergedSocialsDFAggForV2!$BP$2:$BP$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="29"/>
@@ -3468,96 +3492,96 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]mergedSocialsDFAgg!$BP$2:$BP$30</c:f>
+              <c:f>[5]mergedSocialsDFAggForV2!$BQ$2:$BQ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.97984167840483805</c:v>
+                  <c:v>1.0726259549630699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35859889638190801</c:v>
+                  <c:v>0.39271608617088799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.737560750460165</c:v>
+                  <c:v>0.75284783389989296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98112912105029204</c:v>
+                  <c:v>1.24212596784147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69717329391304494</c:v>
+                  <c:v>0.77819201219015999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3453268109538501</c:v>
+                  <c:v>1.3277849936434301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0883566332013801</c:v>
+                  <c:v>0.99825183023096897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.806081412368442</c:v>
+                  <c:v>0.78722772487843395</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1618642678451101</c:v>
+                  <c:v>1.1088755135628501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.846852786531612</c:v>
+                  <c:v>0.88984797112230196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.639770285313913</c:v>
+                  <c:v>0.68178520244981</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.85881701888018203</c:v>
+                  <c:v>0.91805903437268699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.18964533606311E-2</c:v>
+                  <c:v>6.82881161319773E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1087583492017099</c:v>
+                  <c:v>1.13173090483381</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8577997306561698E-2</c:v>
+                  <c:v>0.104782760701136</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.582978456600031</c:v>
+                  <c:v>0.59983492530884097</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21254906026791701</c:v>
+                  <c:v>0.32671413805575</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5687410198526099</c:v>
+                  <c:v>1.30703614666143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.23313083394419</c:v>
+                  <c:v>1.25406864585711</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98727860631917497</c:v>
+                  <c:v>1.08019837178206</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4140862952964599</c:v>
+                  <c:v>1.4254746492855701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2429168307843701</c:v>
+                  <c:v>1.3431418146998599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0829381237270701</c:v>
+                  <c:v>1.1394553027111001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91293336833629801</c:v>
+                  <c:v>0.84155092926507102</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.62980889471192</c:v>
+                  <c:v>1.6842745340288701</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.76645418248385599</c:v>
+                  <c:v>0.79668527849065296</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65243099371689095</c:v>
+                  <c:v>0.68405740091610201</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1020480781049899</c:v>
+                  <c:v>1.23669289495423</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.41928517374527402</c:v>
+                  <c:v>0.44722082331640101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3565,7 +3589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B859-AA4B-8DF6-5FA8FCAD3DA5}"/>
+              <c16:uniqueId val="{00000003-AF41-3349-8957-49FEBE4CCF44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3577,11 +3601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141908640"/>
-        <c:axId val="2113852688"/>
+        <c:axId val="1721882800"/>
+        <c:axId val="1742139456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2141908640"/>
+        <c:axId val="1721882800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3624,12 +3648,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113852688"/>
+        <c:crossAx val="1742139456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113852688"/>
+        <c:axId val="1742139456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,7 +3696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141908640"/>
+        <c:crossAx val="1721882800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3759,19 +3783,8 @@
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>ROI vs.</a:t>
+              <a:t>ROI vs. Followers: Team "Against"</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> Followers: Team "Against"</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3815,7 +3828,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]mergedSocialsDFAggAgainst!$BP$1</c:f>
+              <c:f>[4]mergedSocialsDFAggAgainstv2!$BQ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3860,8 +3873,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14066032370953629"/>
-                  <c:y val="0.11648257509477981"/>
+                  <c:x val="0.13510476815398076"/>
+                  <c:y val="0.12794838145231846"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3896,7 +3909,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]mergedSocialsDFAggAgainst!$BO$2:$BO$30</c:f>
+              <c:f>[4]mergedSocialsDFAggAgainstv2!$BP$2:$BP$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="29"/>
@@ -3992,78 +4005,78 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]mergedSocialsDFAggAgainst!$BP$2:$BP$30</c:f>
+              <c:f>[4]mergedSocialsDFAggAgainstv2!$BQ$2:$BQ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.83295818936044397</c:v>
+                  <c:v>0.83941522958804404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4852484253115901</c:v>
+                  <c:v>1.48951638055674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0796642787917901</c:v>
+                  <c:v>1.0828397619647101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56268654863701795</c:v>
+                  <c:v>0.69056985514543101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0218486244229501</c:v>
+                  <c:v>1.0783327192403001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54667805361300303</c:v>
+                  <c:v>0.54821799179219399</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.84322429607278204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92547613732774103</c:v>
+                  <c:v>0.92829771091715496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59834537443108204</c:v>
+                  <c:v>0.60062913540219298</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.83419698097952699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2047821463202599</c:v>
+                  <c:v>1.2092776020901199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77629359897244499</c:v>
+                  <c:v>0.836218017138739</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.49839083936475</c:v>
+                  <c:v>1.8487608366291499</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.61373896593838695</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.78619882405831</c:v>
+                  <c:v>1.7936413191585501</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.79818447342545995</c:v>
+                  <c:v>0.902295491698346</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.46750966792657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16163974949323301</c:v>
+                  <c:v>0.163095963452631</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.47693324409893201</c:v>
+                  <c:v>0.48065928506845501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82004189534991301</c:v>
+                  <c:v>0.82625433395104897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55449211778019702</c:v>
+                  <c:v>0.55697862951912103</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.39154749055830901</c:v>
+                  <c:v>0.39460645532829602</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.65014861748086195</c:v>
+                  <c:v>0.65192013959933903</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.90648754432137602</c:v>
@@ -4075,13 +4088,13 @@
                   <c:v>0.95213251711281999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.15639744823295</c:v>
+                  <c:v>1.1593324671370999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50074884925833596</c:v>
+                  <c:v>0.53984076685842897</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2110814751927801</c:v>
+                  <c:v>1.21716731175154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4089,7 +4102,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DE0D-0E41-8ADA-DE864B8A7FB1}"/>
+              <c16:uniqueId val="{00000001-306A-EB48-A865-302CCFFFECB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4101,11 +4114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1377663"/>
-        <c:axId val="1379311"/>
+        <c:axId val="1741939632"/>
+        <c:axId val="1741941280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1377663"/>
+        <c:axId val="1741939632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4148,12 +4161,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1379311"/>
+        <c:crossAx val="1741941280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1379311"/>
+        <c:axId val="1741941280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,13 +4209,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1377663"/>
+        <c:crossAx val="1741939632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -6559,23 +6572,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BAD46F-DA46-8340-B697-7232D45B0EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E68F09-3B82-BE43-8411-0B604D3591CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6602,23 +6615,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6508F8-3AF6-5742-83ED-71A7B4B2C030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EDAC0C-4D67-5C4F-A6E1-CA96A4F2C7DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6646,512 +6659,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="mergedSocialsDFAgg"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="BP1" t="str">
-            <v>ROI</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="BO2">
-            <v>4038844</v>
-          </cell>
-          <cell r="BP2">
-            <v>0.97984167840483805</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="BO3">
-            <v>17055849</v>
-          </cell>
-          <cell r="BP3">
-            <v>0.35859889638190801</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="BO4">
-            <v>5615529</v>
-          </cell>
-          <cell r="BP4">
-            <v>0.737560750460165</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="BO5">
-            <v>3830089</v>
-          </cell>
-          <cell r="BP5">
-            <v>0.98112912105029204</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="BO6">
-            <v>26541068</v>
-          </cell>
-          <cell r="BP6">
-            <v>0.69717329391304494</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="BO7">
-            <v>19245181</v>
-          </cell>
-          <cell r="BP7">
-            <v>1.3453268109538501</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="BO8">
-            <v>7409805</v>
-          </cell>
-          <cell r="BP8">
-            <v>1.0883566332013801</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="BO9">
-            <v>4012185</v>
-          </cell>
-          <cell r="BP9">
-            <v>0.806081412368442</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="BO10">
-            <v>3815805</v>
-          </cell>
-          <cell r="BP10">
-            <v>1.1618642678451101</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="BO11">
-            <v>31279993</v>
-          </cell>
-          <cell r="BP11">
-            <v>0.846852786531612</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="BO12">
-            <v>20292216</v>
-          </cell>
-          <cell r="BP12">
-            <v>0.639770285313913</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="BO13">
-            <v>6147056</v>
-          </cell>
-          <cell r="BP13">
-            <v>0.85881701888018203</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="BO14">
-            <v>39699365</v>
-          </cell>
-          <cell r="BP14">
-            <v>3.18964533606311E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="BO15">
-            <v>3749108</v>
-          </cell>
-          <cell r="BP15">
-            <v>1.1087583492017099</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="BO16">
-            <v>23576613</v>
-          </cell>
-          <cell r="BP16">
-            <v>8.8577997306561698E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="BO17">
-            <v>5315703</v>
-          </cell>
-          <cell r="BP17">
-            <v>0.582978456600031</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="BO18">
-            <v>4547073</v>
-          </cell>
-          <cell r="BP18">
-            <v>0.21254906026791701</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="BO19">
-            <v>4466992</v>
-          </cell>
-          <cell r="BP19">
-            <v>1.5687410198526099</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="BO20">
-            <v>10276527</v>
-          </cell>
-          <cell r="BP20">
-            <v>1.23313083394419</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="BO21">
-            <v>14171918</v>
-          </cell>
-          <cell r="BP21">
-            <v>0.98727860631917497</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="BO22">
-            <v>5256557</v>
-          </cell>
-          <cell r="BP22">
-            <v>1.4140862952964599</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="BO23">
-            <v>5800986</v>
-          </cell>
-          <cell r="BP23">
-            <v>1.2429168307843701</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="BO24">
-            <v>4235339</v>
-          </cell>
-          <cell r="BP24">
-            <v>1.0829381237270701</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="BO25">
-            <v>5355015</v>
-          </cell>
-          <cell r="BP25">
-            <v>0.91293336833629801</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="BO26">
-            <v>10116735</v>
-          </cell>
-          <cell r="BP26">
-            <v>1.62980889471192</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="BO27">
-            <v>13355415</v>
-          </cell>
-          <cell r="BP27">
-            <v>0.76645418248385599</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="BO28">
-            <v>7781619</v>
-          </cell>
-          <cell r="BP28">
-            <v>0.65243099371689095</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="BO29">
-            <v>8885256</v>
-          </cell>
-          <cell r="BP29">
-            <v>1.1020480781049899</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="BO30">
-            <v>5607265</v>
-          </cell>
-          <cell r="BP30">
-            <v>0.41928517374527402</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="mergedSocialsDFAggAgainst"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="BP1" t="str">
-            <v>ROI</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="BO2">
-            <v>4038844</v>
-          </cell>
-          <cell r="BP2">
-            <v>0.83295818936044397</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="BO3">
-            <v>17055849</v>
-          </cell>
-          <cell r="BP3">
-            <v>1.4852484253115901</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="BO4">
-            <v>5615529</v>
-          </cell>
-          <cell r="BP4">
-            <v>1.0796642787917901</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="BO5">
-            <v>3830089</v>
-          </cell>
-          <cell r="BP5">
-            <v>0.56268654863701795</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="BO6">
-            <v>26541068</v>
-          </cell>
-          <cell r="BP6">
-            <v>1.0218486244229501</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="BO7">
-            <v>19245181</v>
-          </cell>
-          <cell r="BP7">
-            <v>0.54667805361300303</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="BO8">
-            <v>7409805</v>
-          </cell>
-          <cell r="BP8">
-            <v>0.84322429607278204</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="BO9">
-            <v>4012185</v>
-          </cell>
-          <cell r="BP9">
-            <v>0.92547613732774103</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="BO10">
-            <v>3815805</v>
-          </cell>
-          <cell r="BP10">
-            <v>0.59834537443108204</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="BO11">
-            <v>31279993</v>
-          </cell>
-          <cell r="BP11">
-            <v>0.83419698097952699</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="BO12">
-            <v>20292216</v>
-          </cell>
-          <cell r="BP12">
-            <v>1.2047821463202599</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="BO13">
-            <v>6147056</v>
-          </cell>
-          <cell r="BP13">
-            <v>0.77629359897244499</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="BO14">
-            <v>39699365</v>
-          </cell>
-          <cell r="BP14">
-            <v>1.49839083936475</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="BO15">
-            <v>3749108</v>
-          </cell>
-          <cell r="BP15">
-            <v>0.61373896593838695</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="BO16">
-            <v>23576613</v>
-          </cell>
-          <cell r="BP16">
-            <v>1.78619882405831</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="BO17">
-            <v>5315703</v>
-          </cell>
-          <cell r="BP17">
-            <v>0.79818447342545995</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="BO18">
-            <v>4547073</v>
-          </cell>
-          <cell r="BP18">
-            <v>1.46750966792657</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="BO19">
-            <v>4466992</v>
-          </cell>
-          <cell r="BP19">
-            <v>0.16163974949323301</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="BO20">
-            <v>10276527</v>
-          </cell>
-          <cell r="BP20">
-            <v>0.47693324409893201</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="BO21">
-            <v>14171918</v>
-          </cell>
-          <cell r="BP21">
-            <v>0.82004189534991301</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="BO22">
-            <v>5256557</v>
-          </cell>
-          <cell r="BP22">
-            <v>0.55449211778019702</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="BO23">
-            <v>5800986</v>
-          </cell>
-          <cell r="BP23">
-            <v>0.39154749055830901</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="BO24">
-            <v>4235339</v>
-          </cell>
-          <cell r="BP24">
-            <v>0.65014861748086195</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="BO25">
-            <v>5355015</v>
-          </cell>
-          <cell r="BP25">
-            <v>0.90648754432137602</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="BO26">
-            <v>10116735</v>
-          </cell>
-          <cell r="BP26">
-            <v>0.22163840863109399</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="BO27">
-            <v>13355415</v>
-          </cell>
-          <cell r="BP27">
-            <v>0.95213251711281999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="BO28">
-            <v>7781619</v>
-          </cell>
-          <cell r="BP28">
-            <v>1.15639744823295</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="BO29">
-            <v>8885256</v>
-          </cell>
-          <cell r="BP29">
-            <v>0.50074884925833596</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="BO30">
-            <v>5607265</v>
-          </cell>
-          <cell r="BP30">
-            <v>1.2110814751927801</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
       <sheetName val="Overs"/>
       <sheetName val="Sheet3"/>
       <sheetName val="Sheet4"/>
@@ -9634,6 +9141,1018 @@
           </cell>
           <cell r="S310">
             <v>0.34072486771428501</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="mergedSocialsDFAgg"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="BP1" t="str">
+            <v>ROI</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="BO2">
+            <v>4038844</v>
+          </cell>
+          <cell r="BP2">
+            <v>0.97984167840483805</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="BO3">
+            <v>17055849</v>
+          </cell>
+          <cell r="BP3">
+            <v>0.35859889638190801</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="BO4">
+            <v>5615529</v>
+          </cell>
+          <cell r="BP4">
+            <v>0.737560750460165</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BO5">
+            <v>3830089</v>
+          </cell>
+          <cell r="BP5">
+            <v>0.98112912105029204</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="BO6">
+            <v>26541068</v>
+          </cell>
+          <cell r="BP6">
+            <v>0.69717329391304494</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="BO7">
+            <v>19245181</v>
+          </cell>
+          <cell r="BP7">
+            <v>1.3453268109538501</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="BO8">
+            <v>7409805</v>
+          </cell>
+          <cell r="BP8">
+            <v>1.0883566332013801</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="BO9">
+            <v>4012185</v>
+          </cell>
+          <cell r="BP9">
+            <v>0.806081412368442</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="BO10">
+            <v>3815805</v>
+          </cell>
+          <cell r="BP10">
+            <v>1.1618642678451101</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="BO11">
+            <v>31279993</v>
+          </cell>
+          <cell r="BP11">
+            <v>0.846852786531612</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="BO12">
+            <v>20292216</v>
+          </cell>
+          <cell r="BP12">
+            <v>0.639770285313913</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="BO13">
+            <v>6147056</v>
+          </cell>
+          <cell r="BP13">
+            <v>0.85881701888018203</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="BO14">
+            <v>39699365</v>
+          </cell>
+          <cell r="BP14">
+            <v>3.18964533606311E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BO15">
+            <v>3749108</v>
+          </cell>
+          <cell r="BP15">
+            <v>1.1087583492017099</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="BO16">
+            <v>23576613</v>
+          </cell>
+          <cell r="BP16">
+            <v>8.8577997306561698E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="BO17">
+            <v>5315703</v>
+          </cell>
+          <cell r="BP17">
+            <v>0.582978456600031</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="BO18">
+            <v>4547073</v>
+          </cell>
+          <cell r="BP18">
+            <v>0.21254906026791701</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BO19">
+            <v>4466992</v>
+          </cell>
+          <cell r="BP19">
+            <v>1.5687410198526099</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="BO20">
+            <v>10276527</v>
+          </cell>
+          <cell r="BP20">
+            <v>1.23313083394419</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="BO21">
+            <v>14171918</v>
+          </cell>
+          <cell r="BP21">
+            <v>0.98727860631917497</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="BO22">
+            <v>5256557</v>
+          </cell>
+          <cell r="BP22">
+            <v>1.4140862952964599</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BO23">
+            <v>5800986</v>
+          </cell>
+          <cell r="BP23">
+            <v>1.2429168307843701</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="BO24">
+            <v>4235339</v>
+          </cell>
+          <cell r="BP24">
+            <v>1.0829381237270701</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="BO25">
+            <v>5355015</v>
+          </cell>
+          <cell r="BP25">
+            <v>0.91293336833629801</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="BO26">
+            <v>10116735</v>
+          </cell>
+          <cell r="BP26">
+            <v>1.62980889471192</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="BO27">
+            <v>13355415</v>
+          </cell>
+          <cell r="BP27">
+            <v>0.76645418248385599</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BO28">
+            <v>7781619</v>
+          </cell>
+          <cell r="BP28">
+            <v>0.65243099371689095</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="BO29">
+            <v>8885256</v>
+          </cell>
+          <cell r="BP29">
+            <v>1.1020480781049899</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="BO30">
+            <v>5607265</v>
+          </cell>
+          <cell r="BP30">
+            <v>0.41928517374527402</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="mergedSocialsDFAggAgainst"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="BP1" t="str">
+            <v>ROI</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="BO2">
+            <v>4038844</v>
+          </cell>
+          <cell r="BP2">
+            <v>0.83295818936044397</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="BO3">
+            <v>17055849</v>
+          </cell>
+          <cell r="BP3">
+            <v>1.4852484253115901</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="BO4">
+            <v>5615529</v>
+          </cell>
+          <cell r="BP4">
+            <v>1.0796642787917901</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BO5">
+            <v>3830089</v>
+          </cell>
+          <cell r="BP5">
+            <v>0.56268654863701795</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="BO6">
+            <v>26541068</v>
+          </cell>
+          <cell r="BP6">
+            <v>1.0218486244229501</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="BO7">
+            <v>19245181</v>
+          </cell>
+          <cell r="BP7">
+            <v>0.54667805361300303</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="BO8">
+            <v>7409805</v>
+          </cell>
+          <cell r="BP8">
+            <v>0.84322429607278204</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="BO9">
+            <v>4012185</v>
+          </cell>
+          <cell r="BP9">
+            <v>0.92547613732774103</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="BO10">
+            <v>3815805</v>
+          </cell>
+          <cell r="BP10">
+            <v>0.59834537443108204</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="BO11">
+            <v>31279993</v>
+          </cell>
+          <cell r="BP11">
+            <v>0.83419698097952699</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="BO12">
+            <v>20292216</v>
+          </cell>
+          <cell r="BP12">
+            <v>1.2047821463202599</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="BO13">
+            <v>6147056</v>
+          </cell>
+          <cell r="BP13">
+            <v>0.77629359897244499</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="BO14">
+            <v>39699365</v>
+          </cell>
+          <cell r="BP14">
+            <v>1.49839083936475</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BO15">
+            <v>3749108</v>
+          </cell>
+          <cell r="BP15">
+            <v>0.61373896593838695</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="BO16">
+            <v>23576613</v>
+          </cell>
+          <cell r="BP16">
+            <v>1.78619882405831</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="BO17">
+            <v>5315703</v>
+          </cell>
+          <cell r="BP17">
+            <v>0.79818447342545995</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="BO18">
+            <v>4547073</v>
+          </cell>
+          <cell r="BP18">
+            <v>1.46750966792657</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BO19">
+            <v>4466992</v>
+          </cell>
+          <cell r="BP19">
+            <v>0.16163974949323301</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="BO20">
+            <v>10276527</v>
+          </cell>
+          <cell r="BP20">
+            <v>0.47693324409893201</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="BO21">
+            <v>14171918</v>
+          </cell>
+          <cell r="BP21">
+            <v>0.82004189534991301</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="BO22">
+            <v>5256557</v>
+          </cell>
+          <cell r="BP22">
+            <v>0.55449211778019702</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BO23">
+            <v>5800986</v>
+          </cell>
+          <cell r="BP23">
+            <v>0.39154749055830901</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="BO24">
+            <v>4235339</v>
+          </cell>
+          <cell r="BP24">
+            <v>0.65014861748086195</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="BO25">
+            <v>5355015</v>
+          </cell>
+          <cell r="BP25">
+            <v>0.90648754432137602</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="BO26">
+            <v>10116735</v>
+          </cell>
+          <cell r="BP26">
+            <v>0.22163840863109399</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="BO27">
+            <v>13355415</v>
+          </cell>
+          <cell r="BP27">
+            <v>0.95213251711281999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BO28">
+            <v>7781619</v>
+          </cell>
+          <cell r="BP28">
+            <v>1.15639744823295</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="BO29">
+            <v>8885256</v>
+          </cell>
+          <cell r="BP29">
+            <v>0.50074884925833596</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="BO30">
+            <v>5607265</v>
+          </cell>
+          <cell r="BP30">
+            <v>1.2110814751927801</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="mergedSocialsDFAggAgainstv2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="BQ1" t="str">
+            <v>ROI</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="BP2">
+            <v>4038844</v>
+          </cell>
+          <cell r="BQ2">
+            <v>0.83941522958804404</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="BP3">
+            <v>17055849</v>
+          </cell>
+          <cell r="BQ3">
+            <v>1.48951638055674</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="BP4">
+            <v>5615529</v>
+          </cell>
+          <cell r="BQ4">
+            <v>1.0828397619647101</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BP5">
+            <v>3830089</v>
+          </cell>
+          <cell r="BQ5">
+            <v>0.69056985514543101</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="BP6">
+            <v>26541068</v>
+          </cell>
+          <cell r="BQ6">
+            <v>1.0783327192403001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="BP7">
+            <v>19245181</v>
+          </cell>
+          <cell r="BQ7">
+            <v>0.54821799179219399</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="BP8">
+            <v>7409805</v>
+          </cell>
+          <cell r="BQ8">
+            <v>0.84322429607278204</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="BP9">
+            <v>4012185</v>
+          </cell>
+          <cell r="BQ9">
+            <v>0.92829771091715496</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="BP10">
+            <v>3815805</v>
+          </cell>
+          <cell r="BQ10">
+            <v>0.60062913540219298</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="BP11">
+            <v>31279993</v>
+          </cell>
+          <cell r="BQ11">
+            <v>0.83419698097952699</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="BP12">
+            <v>20292216</v>
+          </cell>
+          <cell r="BQ12">
+            <v>1.2092776020901199</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="BP13">
+            <v>6147056</v>
+          </cell>
+          <cell r="BQ13">
+            <v>0.836218017138739</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="BP14">
+            <v>39699365</v>
+          </cell>
+          <cell r="BQ14">
+            <v>1.8487608366291499</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BP15">
+            <v>3749108</v>
+          </cell>
+          <cell r="BQ15">
+            <v>0.61373896593838695</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="BP16">
+            <v>23576613</v>
+          </cell>
+          <cell r="BQ16">
+            <v>1.7936413191585501</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="BP17">
+            <v>5315703</v>
+          </cell>
+          <cell r="BQ17">
+            <v>0.902295491698346</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="BP18">
+            <v>4547073</v>
+          </cell>
+          <cell r="BQ18">
+            <v>1.46750966792657</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BP19">
+            <v>4466992</v>
+          </cell>
+          <cell r="BQ19">
+            <v>0.163095963452631</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="BP20">
+            <v>10276527</v>
+          </cell>
+          <cell r="BQ20">
+            <v>0.48065928506845501</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="BP21">
+            <v>14171918</v>
+          </cell>
+          <cell r="BQ21">
+            <v>0.82625433395104897</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="BP22">
+            <v>5256557</v>
+          </cell>
+          <cell r="BQ22">
+            <v>0.55697862951912103</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BP23">
+            <v>5800986</v>
+          </cell>
+          <cell r="BQ23">
+            <v>0.39460645532829602</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="BP24">
+            <v>4235339</v>
+          </cell>
+          <cell r="BQ24">
+            <v>0.65192013959933903</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="BP25">
+            <v>5355015</v>
+          </cell>
+          <cell r="BQ25">
+            <v>0.90648754432137602</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="BP26">
+            <v>10116735</v>
+          </cell>
+          <cell r="BQ26">
+            <v>0.22163840863109399</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="BP27">
+            <v>13355415</v>
+          </cell>
+          <cell r="BQ27">
+            <v>0.95213251711281999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BP28">
+            <v>7781619</v>
+          </cell>
+          <cell r="BQ28">
+            <v>1.1593324671370999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="BP29">
+            <v>8885256</v>
+          </cell>
+          <cell r="BQ29">
+            <v>0.53984076685842897</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="BP30">
+            <v>5607265</v>
+          </cell>
+          <cell r="BQ30">
+            <v>1.21716731175154</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="mergedSocialsDFAggForV2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="BQ1" t="str">
+            <v>ROI</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="BP2">
+            <v>4038844</v>
+          </cell>
+          <cell r="BQ2">
+            <v>1.0726259549630699</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="BP3">
+            <v>17055849</v>
+          </cell>
+          <cell r="BQ3">
+            <v>0.39271608617088799</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="BP4">
+            <v>5615529</v>
+          </cell>
+          <cell r="BQ4">
+            <v>0.75284783389989296</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BP5">
+            <v>3830089</v>
+          </cell>
+          <cell r="BQ5">
+            <v>1.24212596784147</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="BP6">
+            <v>26541068</v>
+          </cell>
+          <cell r="BQ6">
+            <v>0.77819201219015999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="BP7">
+            <v>19245181</v>
+          </cell>
+          <cell r="BQ7">
+            <v>1.3277849936434301</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="BP8">
+            <v>7409805</v>
+          </cell>
+          <cell r="BQ8">
+            <v>0.99825183023096897</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="BP9">
+            <v>4012185</v>
+          </cell>
+          <cell r="BQ9">
+            <v>0.78722772487843395</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="BP10">
+            <v>3815805</v>
+          </cell>
+          <cell r="BQ10">
+            <v>1.1088755135628501</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="BP11">
+            <v>31279993</v>
+          </cell>
+          <cell r="BQ11">
+            <v>0.88984797112230196</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="BP12">
+            <v>20292216</v>
+          </cell>
+          <cell r="BQ12">
+            <v>0.68178520244981</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="BP13">
+            <v>6147056</v>
+          </cell>
+          <cell r="BQ13">
+            <v>0.91805903437268699</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="BP14">
+            <v>39699365</v>
+          </cell>
+          <cell r="BQ14">
+            <v>6.82881161319773E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BP15">
+            <v>3749108</v>
+          </cell>
+          <cell r="BQ15">
+            <v>1.13173090483381</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="BP16">
+            <v>23576613</v>
+          </cell>
+          <cell r="BQ16">
+            <v>0.104782760701136</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="BP17">
+            <v>5315703</v>
+          </cell>
+          <cell r="BQ17">
+            <v>0.59983492530884097</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="BP18">
+            <v>4547073</v>
+          </cell>
+          <cell r="BQ18">
+            <v>0.32671413805575</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BP19">
+            <v>4466992</v>
+          </cell>
+          <cell r="BQ19">
+            <v>1.30703614666143</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="BP20">
+            <v>10276527</v>
+          </cell>
+          <cell r="BQ20">
+            <v>1.25406864585711</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="BP21">
+            <v>14171918</v>
+          </cell>
+          <cell r="BQ21">
+            <v>1.08019837178206</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="BP22">
+            <v>5256557</v>
+          </cell>
+          <cell r="BQ22">
+            <v>1.4254746492855701</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BP23">
+            <v>5800986</v>
+          </cell>
+          <cell r="BQ23">
+            <v>1.3431418146998599</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="BP24">
+            <v>4235339</v>
+          </cell>
+          <cell r="BQ24">
+            <v>1.1394553027111001</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="BP25">
+            <v>5355015</v>
+          </cell>
+          <cell r="BQ25">
+            <v>0.84155092926507102</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="BP26">
+            <v>10116735</v>
+          </cell>
+          <cell r="BQ26">
+            <v>1.6842745340288701</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="BP27">
+            <v>13355415</v>
+          </cell>
+          <cell r="BQ27">
+            <v>0.79668527849065296</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BP28">
+            <v>7781619</v>
+          </cell>
+          <cell r="BQ28">
+            <v>0.68405740091610201</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="BP29">
+            <v>8885256</v>
+          </cell>
+          <cell r="BQ29">
+            <v>1.23669289495423</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="BP30">
+            <v>5607265</v>
+          </cell>
+          <cell r="BQ30">
+            <v>0.44722082331640101</v>
           </cell>
         </row>
       </sheetData>
@@ -14319,8 +14838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539DABA7-9F68-8D4C-B5D4-883F9E4AA99F}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14347,7 +14866,7 @@
         <v>4038844</v>
       </c>
       <c r="C2">
-        <v>0.97984167840483805</v>
+        <v>1.0726259549630699</v>
       </c>
       <c r="D2">
         <v>132</v>
@@ -14361,7 +14880,7 @@
         <v>17055849</v>
       </c>
       <c r="C3">
-        <v>0.35859889638190801</v>
+        <v>0.39271608617088799</v>
       </c>
       <c r="D3">
         <v>349</v>
@@ -14375,7 +14894,7 @@
         <v>5615529</v>
       </c>
       <c r="C4">
-        <v>0.737560750460165</v>
+        <v>0.75284783389989296</v>
       </c>
       <c r="D4">
         <v>341</v>
@@ -14389,7 +14908,7 @@
         <v>3830089</v>
       </c>
       <c r="C5">
-        <v>0.98112912105029204</v>
+        <v>1.24212596784147</v>
       </c>
       <c r="D5">
         <v>243</v>
@@ -14403,7 +14922,7 @@
         <v>26541068</v>
       </c>
       <c r="C6">
-        <v>0.69717329391304494</v>
+        <v>0.77819201219015999</v>
       </c>
       <c r="D6">
         <v>421</v>
@@ -14417,7 +14936,7 @@
         <v>19245181</v>
       </c>
       <c r="C7">
-        <v>1.3453268109538501</v>
+        <v>1.3277849936434301</v>
       </c>
       <c r="D7">
         <v>353</v>
@@ -14431,7 +14950,7 @@
         <v>7409805</v>
       </c>
       <c r="C8">
-        <v>1.0883566332013801</v>
+        <v>0.99825183023096897</v>
       </c>
       <c r="D8">
         <v>253</v>
@@ -14445,7 +14964,7 @@
         <v>4012185</v>
       </c>
       <c r="C9">
-        <v>0.806081412368442</v>
+        <v>0.78722772487843395</v>
       </c>
       <c r="D9">
         <v>329</v>
@@ -14459,7 +14978,7 @@
         <v>3815805</v>
       </c>
       <c r="C10">
-        <v>1.1618642678451101</v>
+        <v>1.1088755135628501</v>
       </c>
       <c r="D10">
         <v>264</v>
@@ -14473,7 +14992,7 @@
         <v>31279993</v>
       </c>
       <c r="C11">
-        <v>0.846852786531612</v>
+        <v>0.88984797112230196</v>
       </c>
       <c r="D11">
         <v>267</v>
@@ -14487,7 +15006,7 @@
         <v>20292216</v>
       </c>
       <c r="C12">
-        <v>0.639770285313913</v>
+        <v>0.68178520244981</v>
       </c>
       <c r="D12">
         <v>270</v>
@@ -14501,7 +15020,7 @@
         <v>6147056</v>
       </c>
       <c r="C13">
-        <v>0.85881701888018203</v>
+        <v>0.91805903437268699</v>
       </c>
       <c r="D13">
         <v>307</v>
@@ -14515,7 +15034,7 @@
         <v>39699365</v>
       </c>
       <c r="C14">
-        <v>3.18964533606311E-2</v>
+        <v>6.82881161319773E-2</v>
       </c>
       <c r="D14">
         <v>248</v>
@@ -14529,7 +15048,7 @@
         <v>3749108</v>
       </c>
       <c r="C15">
-        <v>1.1087583492017099</v>
+        <v>1.13173090483381</v>
       </c>
       <c r="D15">
         <v>327</v>
@@ -14543,7 +15062,7 @@
         <v>23576613</v>
       </c>
       <c r="C16">
-        <v>8.8577997306561698E-2</v>
+        <v>0.104782760701136</v>
       </c>
       <c r="D16">
         <v>241</v>
@@ -14557,7 +15076,7 @@
         <v>5315703</v>
       </c>
       <c r="C17">
-        <v>0.582978456600031</v>
+        <v>0.59983492530884097</v>
       </c>
       <c r="D17">
         <v>182</v>
@@ -14571,7 +15090,7 @@
         <v>4547073</v>
       </c>
       <c r="C18">
-        <v>0.21254906026791701</v>
+        <v>0.32671413805575</v>
       </c>
       <c r="D18">
         <v>298</v>
@@ -14585,7 +15104,7 @@
         <v>4466992</v>
       </c>
       <c r="C19">
-        <v>1.5687410198526099</v>
+        <v>1.30703614666143</v>
       </c>
       <c r="D19">
         <v>111</v>
@@ -14599,7 +15118,7 @@
         <v>10276527</v>
       </c>
       <c r="C20">
-        <v>1.23313083394419</v>
+        <v>1.25406864585711</v>
       </c>
       <c r="D20">
         <v>129</v>
@@ -14613,7 +15132,7 @@
         <v>14171918</v>
       </c>
       <c r="C21">
-        <v>0.98727860631917497</v>
+        <v>1.08019837178206</v>
       </c>
       <c r="D21">
         <v>133</v>
@@ -14627,7 +15146,7 @@
         <v>5256557</v>
       </c>
       <c r="C22">
-        <v>1.4140862952964599</v>
+        <v>1.4254746492855701</v>
       </c>
       <c r="D22">
         <v>224</v>
@@ -14641,7 +15160,7 @@
         <v>5800986</v>
       </c>
       <c r="C23">
-        <v>1.2429168307843701</v>
+        <v>1.3431418146998599</v>
       </c>
       <c r="D23">
         <v>128</v>
@@ -14655,7 +15174,7 @@
         <v>4235339</v>
       </c>
       <c r="C24">
-        <v>1.0829381237270701</v>
+        <v>1.1394553027111001</v>
       </c>
       <c r="D24">
         <v>367</v>
@@ -14669,7 +15188,7 @@
         <v>5355015</v>
       </c>
       <c r="C25">
-        <v>0.91293336833629801</v>
+        <v>0.84155092926507102</v>
       </c>
       <c r="D25">
         <v>291</v>
@@ -14683,7 +15202,7 @@
         <v>10116735</v>
       </c>
       <c r="C26">
-        <v>1.62980889471192</v>
+        <v>1.6842745340288701</v>
       </c>
       <c r="D26">
         <v>343</v>
@@ -14697,7 +15216,7 @@
         <v>13355415</v>
       </c>
       <c r="C27">
-        <v>0.76645418248385599</v>
+        <v>0.79668527849065296</v>
       </c>
       <c r="D27">
         <v>321</v>
@@ -14711,7 +15230,7 @@
         <v>7781619</v>
       </c>
       <c r="C28">
-        <v>0.65243099371689095</v>
+        <v>0.68405740091610201</v>
       </c>
       <c r="D28">
         <v>394</v>
@@ -14725,7 +15244,7 @@
         <v>8885256</v>
       </c>
       <c r="C29">
-        <v>1.1020480781049899</v>
+        <v>1.23669289495423</v>
       </c>
       <c r="D29">
         <v>291</v>
@@ -14739,7 +15258,7 @@
         <v>5607265</v>
       </c>
       <c r="C30">
-        <v>0.41928517374527402</v>
+        <v>0.44722082331640101</v>
       </c>
       <c r="D30">
         <v>200</v>
@@ -14755,8 +15274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893B181B-94A4-D945-A7AD-3C172E8EE4CF}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14783,7 +15302,7 @@
         <v>4038844</v>
       </c>
       <c r="C2">
-        <v>0.83295818936044397</v>
+        <v>0.83941522958804404</v>
       </c>
       <c r="D2">
         <v>130</v>
@@ -14797,7 +15316,7 @@
         <v>17055849</v>
       </c>
       <c r="C3">
-        <v>1.4852484253115901</v>
+        <v>1.48951638055674</v>
       </c>
       <c r="D3">
         <v>349</v>
@@ -14811,7 +15330,7 @@
         <v>5615529</v>
       </c>
       <c r="C4">
-        <v>1.0796642787917901</v>
+        <v>1.0828397619647101</v>
       </c>
       <c r="D4">
         <v>341</v>
@@ -14825,7 +15344,7 @@
         <v>3830089</v>
       </c>
       <c r="C5">
-        <v>0.56268654863701795</v>
+        <v>0.69056985514543101</v>
       </c>
       <c r="D5">
         <v>243</v>
@@ -14839,7 +15358,7 @@
         <v>26541068</v>
       </c>
       <c r="C6">
-        <v>1.0218486244229501</v>
+        <v>1.0783327192403001</v>
       </c>
       <c r="D6">
         <v>420</v>
@@ -14853,7 +15372,7 @@
         <v>19245181</v>
       </c>
       <c r="C7">
-        <v>0.54667805361300303</v>
+        <v>0.54821799179219399</v>
       </c>
       <c r="D7">
         <v>356</v>
@@ -14881,7 +15400,7 @@
         <v>4012185</v>
       </c>
       <c r="C9">
-        <v>0.92547613732774103</v>
+        <v>0.92829771091715496</v>
       </c>
       <c r="D9">
         <v>329</v>
@@ -14895,7 +15414,7 @@
         <v>3815805</v>
       </c>
       <c r="C10">
-        <v>0.59834537443108204</v>
+        <v>0.60062913540219298</v>
       </c>
       <c r="D10">
         <v>263</v>
@@ -14923,7 +15442,7 @@
         <v>20292216</v>
       </c>
       <c r="C12">
-        <v>1.2047821463202599</v>
+        <v>1.2092776020901199</v>
       </c>
       <c r="D12">
         <v>269</v>
@@ -14937,7 +15456,7 @@
         <v>6147056</v>
       </c>
       <c r="C13">
-        <v>0.77629359897244499</v>
+        <v>0.836218017138739</v>
       </c>
       <c r="D13">
         <v>307</v>
@@ -14951,7 +15470,7 @@
         <v>39699365</v>
       </c>
       <c r="C14">
-        <v>1.49839083936475</v>
+        <v>1.8487608366291499</v>
       </c>
       <c r="D14">
         <v>248</v>
@@ -14979,7 +15498,7 @@
         <v>23576613</v>
       </c>
       <c r="C16">
-        <v>1.78619882405831</v>
+        <v>1.7936413191585501</v>
       </c>
       <c r="D16">
         <v>241</v>
@@ -14993,7 +15512,7 @@
         <v>5315703</v>
       </c>
       <c r="C17">
-        <v>0.79818447342545995</v>
+        <v>0.902295491698346</v>
       </c>
       <c r="D17">
         <v>182</v>
@@ -15021,7 +15540,7 @@
         <v>4466992</v>
       </c>
       <c r="C19">
-        <v>0.16163974949323301</v>
+        <v>0.163095963452631</v>
       </c>
       <c r="D19">
         <v>112</v>
@@ -15035,7 +15554,7 @@
         <v>10276527</v>
       </c>
       <c r="C20">
-        <v>0.47693324409893201</v>
+        <v>0.48065928506845501</v>
       </c>
       <c r="D20">
         <v>129</v>
@@ -15049,7 +15568,7 @@
         <v>14171918</v>
       </c>
       <c r="C21">
-        <v>0.82004189534991301</v>
+        <v>0.82625433395104897</v>
       </c>
       <c r="D21">
         <v>133</v>
@@ -15063,7 +15582,7 @@
         <v>5256557</v>
       </c>
       <c r="C22">
-        <v>0.55449211778019702</v>
+        <v>0.55697862951912103</v>
       </c>
       <c r="D22">
         <v>224</v>
@@ -15077,7 +15596,7 @@
         <v>5800986</v>
       </c>
       <c r="C23">
-        <v>0.39154749055830901</v>
+        <v>0.39460645532829602</v>
       </c>
       <c r="D23">
         <v>129</v>
@@ -15091,7 +15610,7 @@
         <v>4235339</v>
       </c>
       <c r="C24">
-        <v>0.65014861748086195</v>
+        <v>0.65192013959933903</v>
       </c>
       <c r="D24">
         <v>368</v>
@@ -15147,7 +15666,7 @@
         <v>7781619</v>
       </c>
       <c r="C28">
-        <v>1.15639744823295</v>
+        <v>1.1593324671370999</v>
       </c>
       <c r="D28">
         <v>395</v>
@@ -15161,7 +15680,7 @@
         <v>8885256</v>
       </c>
       <c r="C29">
-        <v>0.50074884925833596</v>
+        <v>0.53984076685842897</v>
       </c>
       <c r="D29">
         <v>290</v>
@@ -15175,7 +15694,7 @@
         <v>5607265</v>
       </c>
       <c r="C30">
-        <v>1.2110814751927801</v>
+        <v>1.21716731175154</v>
       </c>
       <c r="D30">
         <v>200</v>
